--- a/results/antnative.xlsx
+++ b/results/antnative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisb/Documents/Papers/5c9a48ac1625513e446f5241/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmb21/Documents/Papers/HLPP2019/5c9a48ac1625513e446f5241/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61F3F0B-CACE-EE4E-914E-93CC0701CA34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B98F2E-E98B-1244-A917-EC6C83A6C805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{92CAEC37-8FA4-3F4A-8529-DA1F7C5C0AEE}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{92CAEC37-8FA4-3F4A-8529-DA1F7C5C0AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,8 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,7 +374,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,7 +388,7 @@
       </c>
       <c r="F1">
         <f>C6/C14</f>
-        <v>1.3405865914393138</v>
+        <v>1.0244660855824272</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -410,7 +400,7 @@
       </c>
       <c r="F2">
         <f>C6/C20</f>
-        <v>2.5983319223282835</v>
+        <v>1.9856255093925574</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -422,7 +412,7 @@
       </c>
       <c r="F3">
         <f>C6/C26</f>
-        <v>4.9815944266198517</v>
+        <v>3.8068966039106482</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -434,7 +424,7 @@
       </c>
       <c r="F4">
         <f>C6/C32</f>
-        <v>7.255458631590356</v>
+        <v>5.5445663494442643</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -446,7 +436,7 @@
       </c>
       <c r="F5">
         <f>C6/C38</f>
-        <v>9.6103446153262215</v>
+        <v>7.3441523225969858</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -454,15 +444,14 @@
         <v>78.390600000000006</v>
       </c>
       <c r="C6">
-        <f>SUM(A2:A6)/5</f>
-        <v>78.999319999999997</v>
+        <v>60.37068</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
         <f>C6/C44</f>
-        <v>11.954545702167636</v>
+        <v>9.1355729787413065</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -471,7 +460,7 @@
       </c>
       <c r="F7">
         <f>C6/C50</f>
-        <v>14.315776121079889</v>
+        <v>10.940007321042197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -480,7 +469,7 @@
       </c>
       <c r="F8">
         <f>C6/C56</f>
-        <v>16.765802222952281</v>
+        <v>12.812298649471172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -492,7 +481,7 @@
       </c>
       <c r="F9">
         <f>C6/C62</f>
-        <v>18.928557736910911</v>
+        <v>14.465059977688071</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,7 +493,7 @@
       </c>
       <c r="F10">
         <f>C6/C68</f>
-        <v>21.191657389648189</v>
+        <v>16.194503534208724</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -516,7 +505,7 @@
       </c>
       <c r="F11">
         <f>C6/C74</f>
-        <v>23.508064228155163</v>
+        <v>17.964684036994274</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -528,7 +517,7 @@
       </c>
       <c r="F12">
         <f>C6/C80</f>
-        <v>25.865188169226581</v>
+        <v>19.765980240135786</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -540,7 +529,7 @@
       </c>
       <c r="F13">
         <f>C6/C86</f>
-        <v>27.98274547809109</v>
+        <v>21.384201443497037</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,7 +545,7 @@
       </c>
       <c r="F14">
         <f>C6/C92</f>
-        <v>29.935709668104852</v>
+        <v>22.876641836234342</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -568,7 +557,7 @@
       </c>
       <c r="F15">
         <f>C6/C98</f>
-        <v>31.320499483009076</v>
+        <v>23.934887689272596</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
